--- a/script/Pr_temp_spreadsheets/05_00_ARC05_7_2.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_7_2.xlsx
@@ -75,7 +75,7 @@
     <t>　それでも叫ばずにはいられなかった。</t>
   </si>
   <si>
-    <t>But I couldn't help but yell anyways.</t>
+    <t>But I couldn't help but yell anyway.</t>
   </si>
   <si>
     <t>&lt;Page3&gt;</t>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0525d7ba-bd74-4f92-be87-009264864b11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d173169c-90af-4aa4-9ccc-1e7ad0d617d2}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -675,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1662e1ac-0431-4b5b-b3a2-70271e36eb4b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62482571-aa3e-4754-9a05-e85fe11a364f}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
